--- a/doc/MaterialListe.xlsx
+++ b/doc/MaterialListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8ec3f70f1f0f60/Dokumente/Daten/Eisenbahn/Arduino/NmraDCC-Projects/zDecoder/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2DC634-EB01-4374-A3A3-31270D17568F}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>ESP1</t>
   </si>
@@ -113,9 +113,6 @@
     <t>B80R DIO</t>
   </si>
   <si>
-    <t>PVBParts</t>
-  </si>
-  <si>
     <t>Bei Bestellung von 20Stk</t>
   </si>
   <si>
@@ -123,6 +120,30 @@
   </si>
   <si>
     <t>Preis pro Ausgang</t>
+  </si>
+  <si>
+    <t>PCBParts</t>
+  </si>
+  <si>
+    <t>ohne Servoausgänge bestückt</t>
+  </si>
+  <si>
+    <t>IC Sockel</t>
+  </si>
+  <si>
+    <t>GS 8 </t>
+  </si>
+  <si>
+    <t>GS 16</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>DC/DC Wandler TSR 1-2450</t>
+  </si>
+  <si>
+    <t>Buchsenleiste</t>
   </si>
 </sst>
 </file>
@@ -188,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,10 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774AF603-5B0A-446A-A66D-027EA2EFF684}">
-  <dimension ref="A2:E23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +534,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,15 +601,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>0.05</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.05</v>
@@ -589,59 +623,53 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -655,7 +683,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -669,7 +697,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -683,21 +711,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="1">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -709,27 +737,99 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(D2:D26)</f>
+        <v>25.550000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1">
-        <f>SUM(D2:D18)</f>
-        <v>21.600000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1">
-        <f>D21/16</f>
-        <v>1.3500000000000003</v>
+      <c r="D29" s="1">
+        <f>D27/16</f>
+        <v>1.5968750000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/MaterialListe.xlsx
+++ b/doc/MaterialListe.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8ec3f70f1f0f60/Dokumente/Daten/Eisenbahn/Arduino/NmraDCC-Projects/zDecoder/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2DC634-EB01-4374-A3A3-31270D17568F}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E81BDC-B4B9-4091-B905-310CF12AB773}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kosten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>ESP1</t>
   </si>
@@ -144,14 +145,63 @@
   </si>
   <si>
     <t>Buchsenleiste</t>
+  </si>
+  <si>
+    <t>2200u 35V</t>
+  </si>
+  <si>
+    <t>TSR 1-2450</t>
+  </si>
+  <si>
+    <t>MPE 087-1-003</t>
+  </si>
+  <si>
+    <t>green 3mm</t>
+  </si>
+  <si>
+    <t>OK1</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>1k5</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>MPE 087-1-002</t>
+  </si>
+  <si>
+    <t>reichelt</t>
+  </si>
+  <si>
+    <t>Printplatte</t>
+  </si>
+  <si>
+    <t>Lieferant</t>
+  </si>
+  <si>
+    <t>Bestellnummer</t>
+  </si>
+  <si>
+    <t>Bauteil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -190,9 +240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -517,8 +568,8 @@
   </sheetPr>
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +884,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8F4CFE-03D3-4C63-9C2A-8879369F4B33}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <f>SUM(D2:D25)</f>
+        <v>25.300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{2e1fccfb-80ca-4fe1-a574-1516544edb53}" enabled="1" method="Standard" siteId="{364e5b87-c1c7-420d-9bee-c35d19b557a1}" contentBits="0" removed="0"/>

--- a/doc/MaterialListe.xlsx
+++ b/doc/MaterialListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8ec3f70f1f0f60/Dokumente/Daten/Eisenbahn/Arduino/NmraDCC-Projects/zDecoder/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E81BDC-B4B9-4091-B905-310CF12AB773}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235C5DFF-B50C-4F23-8BB5-1DA0C8245249}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>ESP1</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Bauteil</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>U90 XEAA</t>
   </si>
 </sst>
 </file>
@@ -886,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8F4CFE-03D3-4C63-9C2A-8879369F4B33}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,82 +925,82 @@
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1008,66 +1014,66 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1078,10 +1084,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1092,10 +1098,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1106,21 +1112,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1134,7 +1140,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1148,7 +1154,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1162,21 +1168,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1190,16 +1196,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.05</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,13 +1213,13 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,19 +1238,33 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="2">
-        <f>SUM(D2:D25)</f>
-        <v>25.300000000000004</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <f>SUM(D2:D26)</f>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MaterialListe.xlsx
+++ b/doc/MaterialListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8ec3f70f1f0f60/Dokumente/Daten/Eisenbahn/Arduino/NmraDCC-Projects/zDecoder/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235C5DFF-B50C-4F23-8BB5-1DA0C8245249}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE839DDD-925A-431C-BDB8-46E27EACB10C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>ESP1</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>U90 XEAA</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10u MLCC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>100n MLCC</t>
   </si>
 </sst>
 </file>
@@ -892,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8F4CFE-03D3-4C63-9C2A-8879369F4B33}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,136 +984,136 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>5.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1112,10 +1124,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1126,35 +1138,35 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1168,7 +1180,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1182,58 +1194,58 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.05</v>
+        <v>47</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.1</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,30 +1253,58 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="2">
-        <f>SUM(D2:D26)</f>
-        <v>26.5</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <f>SUM(D2:D28)</f>
+        <v>26.7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MaterialListe.xlsx
+++ b/doc/MaterialListe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8ec3f70f1f0f60/Dokumente/Daten/Eisenbahn/Arduino/NmraDCC-Projects/zDecoder/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE839DDD-925A-431C-BDB8-46E27EACB10C}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{5FF5B853-2CE4-4A1E-B693-4563843E4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401FAFC8-A053-47F9-B556-C72B971AB6BE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{479663EB-0BF7-4A57-8BD7-55DB184B24F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>ESP1</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>100n MLCC</t>
+  </si>
+  <si>
+    <t>GS 18</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1281,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
